--- a/Income/NOW_inc.xlsx
+++ b/Income/NOW_inc.xlsx
@@ -2064,16 +2064,16 @@
         <v>0.7449</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.7463</v>
+        <v>0.757</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.7563</v>
+        <v>0.7678</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.7501</v>
+        <v>0.7624</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.7566</v>
+        <v>0.7698</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.7663</v>
@@ -2179,19 +2179,19 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.051</v>
+        <v>0.0511</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.044</v>
       </c>
       <c r="D17" s="0" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>0.0496</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>0.0497</v>
-      </c>
       <c r="F17" s="0" t="n">
-        <v>0.0288</v>
+        <v>0.0287</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.0122</v>
@@ -2306,13 +2306,13 @@
         <v>0.0328</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.04</v>
+        <v>0.0401</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.0518</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.034</v>
+        <v>0.0341</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.0194</v>
@@ -2427,16 +2427,16 @@
         <v>0.0263</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1661</v>
+        <v>0.166</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.1842</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.182</v>
+        <v>0.1819</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.1812</v>
+        <v>0.1811</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0109</v>
@@ -2548,7 +2548,7 @@
         <v>0.2918</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.2641</v>
+        <v>0.2642</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0.2656</v>
@@ -3516,16 +3516,16 @@
         <v>0.1405</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1455</v>
+        <v>0.1507</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1498</v>
+        <v>0.1554</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1469</v>
+        <v>0.1528</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1368</v>
+        <v>0.1432</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.133</v>
@@ -3612,16 +3612,16 @@
         <v>-0.0371</v>
       </c>
       <c r="AJ28" s="0" t="n">
-        <v>0.1424</v>
+        <v>0.116</v>
       </c>
       <c r="AK28" s="0" t="n">
-        <v>0.2137</v>
+        <v>0.1828</v>
       </c>
       <c r="AL28" s="0" t="n">
-        <v>0.2507</v>
+        <v>0.2142</v>
       </c>
       <c r="AM28" s="0" t="n">
-        <v>0.6597</v>
+        <v>0.6305</v>
       </c>
     </row>
     <row r="29">
@@ -3637,7 +3637,7 @@
         <v>0.3954</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.3606</v>
+        <v>0.3607</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0.377</v>
@@ -3646,7 +3646,7 @@
         <v>0.3676</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.3571</v>
+        <v>0.3572</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.3425</v>
